--- a/tabular/eve/efv-refseq-locus-data.xlsx
+++ b/tabular/eve/efv-refseq-locus-data.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43275461-ADEA-F24A-A60A-7888268F7BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820" xr2:uid="{08DBACE2-76C5-374F-83E7-BEA5EF469001}"/>
+    <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -197,13 +194,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +219,24 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -292,8 +308,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -323,7 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -434,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -628,23 +648,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036172F3-CD04-E047-9298-68B62F633F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="Q7" sqref="A1:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
@@ -697,7 +717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -803,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -854,7 +874,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -905,7 +925,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
@@ -957,7 +977,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -1010,5 +1030,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tabular/eve/efv-refseq-locus-data.xlsx
+++ b/tabular/eve/efv-refseq-locus-data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E4824-E7AA-D44C-A6F1-1BC4D518D675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820"/>
+    <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -194,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -648,23 +654,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A1:Q7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
@@ -717,7 +723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -823,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -874,7 +880,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -925,7 +931,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
@@ -977,7 +983,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>

--- a/tabular/eve/efv-refseq-locus-data.xlsx
+++ b/tabular/eve/efv-refseq-locus-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E4824-E7AA-D44C-A6F1-1BC4D518D675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6439CB-D6DC-1943-A2AD-8F27F3B063FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -669,6 +669,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">

--- a/tabular/eve/efv-refseq-locus-data.xlsx
+++ b/tabular/eve/efv-refseq-locus-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6439CB-D6DC-1943-A2AD-8F27F3B063FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE66FB-F1DF-E94D-8A9E-59F257882720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1460" windowWidth="27280" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,13 +664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
